--- a/tests/becu_validation/BECU_ROI_Model_GAP_BASED.xlsx
+++ b/tests/becu_validation/BECU_ROI_Model_GAP_BASED.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cover Page" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Instructions" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table of Contents" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Cashflows" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Journey Analysis" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Model Inputs" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Scenario Data" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Bank Profile" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Assumptions" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Data Gaps" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover Page" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table of Contents" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cashflows" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Journey Analysis" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model Inputs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scenario Data" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bank Profile" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assumptions" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data Gaps" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="ScenarioIndex">'Cashflows'!$C$5</definedName>
@@ -3670,8 +3670,9 @@
           <t xml:space="preserve">    Backbase Impact</t>
         </is>
       </c>
-      <c r="C21" s="6" t="n">
-        <v>0.08</v>
+      <c r="C21" s="6">
+        <f>INDEX('Scenario Data'!$C$31:$E$31,1,'Cashflows'!$C$5)</f>
+        <v/>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3806,8 +3807,9 @@
           <t xml:space="preserve">    Backbase Impact</t>
         </is>
       </c>
-      <c r="C31" s="6" t="n">
-        <v>0.18</v>
+      <c r="C31" s="6">
+        <f>INDEX('Scenario Data'!$C$30:$E$30,1,'Cashflows'!$C$5)</f>
+        <v/>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3942,8 +3944,9 @@
           <t xml:space="preserve">    Backbase Impact</t>
         </is>
       </c>
-      <c r="C41" s="6" t="n">
-        <v>0.15</v>
+      <c r="C41" s="6">
+        <f>INDEX('Scenario Data'!$C$26:$E$26,1,'Cashflows'!$C$5)</f>
+        <v/>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4053,8 +4056,9 @@
           <t xml:space="preserve">    Backbase Impact</t>
         </is>
       </c>
-      <c r="C50" s="6" t="n">
-        <v>0.11</v>
+      <c r="C50" s="6">
+        <f>INDEX('Scenario Data'!$C$27:$E$27,1,'Cashflows'!$C$5)</f>
+        <v/>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4189,8 +4193,9 @@
           <t xml:space="preserve">    Backbase Impact</t>
         </is>
       </c>
-      <c r="C60" s="6" t="n">
-        <v>0.22</v>
+      <c r="C60" s="6">
+        <f>INDEX('Scenario Data'!$C$25:$E$25,1,'Cashflows'!$C$5)</f>
+        <v/>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4325,8 +4330,9 @@
           <t xml:space="preserve">    Backbase Impact</t>
         </is>
       </c>
-      <c r="C70" s="6" t="n">
-        <v>0.18</v>
+      <c r="C70" s="6">
+        <f>INDEX('Scenario Data'!$C$30:$E$30,1,'Cashflows'!$C$5)</f>
+        <v/>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4486,8 +4492,9 @@
           <t xml:space="preserve">    Backbase Impact</t>
         </is>
       </c>
-      <c r="C81" s="6" t="n">
-        <v>0.1</v>
+      <c r="C81" s="6">
+        <f>INDEX('Scenario Data'!$C$28:$E$28,1,'Cashflows'!$C$5)</f>
+        <v/>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -4597,8 +4604,9 @@
           <t xml:space="preserve">    Backbase Impact</t>
         </is>
       </c>
-      <c r="C90" s="6" t="n">
-        <v>0.45</v>
+      <c r="C90" s="6">
+        <f>INDEX('Scenario Data'!$C$29:$E$29,1,'Cashflows'!$C$5)</f>
+        <v/>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4754,7 +4762,7 @@
         </is>
       </c>
       <c r="C109" s="46" t="n">
-        <v>1000000</v>
+        <v>3400000</v>
       </c>
     </row>
     <row r="110">
@@ -4764,7 +4772,7 @@
         </is>
       </c>
       <c r="C110" s="46" t="n">
-        <v>1000000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="111">
@@ -4774,7 +4782,7 @@
         </is>
       </c>
       <c r="C111" s="46" t="n">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="112">
@@ -4784,7 +4792,7 @@
         </is>
       </c>
       <c r="C112" s="46" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4794,7 +4802,7 @@
         </is>
       </c>
       <c r="C113" s="46" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4811,7 +4819,7 @@
         </is>
       </c>
       <c r="C116" s="46" t="n">
-        <v>500000</v>
+        <v>13600000</v>
       </c>
     </row>
     <row r="117">
@@ -4821,7 +4829,7 @@
         </is>
       </c>
       <c r="C117" s="46" t="n">
-        <v>500000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="118">
@@ -4831,7 +4839,7 @@
         </is>
       </c>
       <c r="C118" s="46" t="n">
-        <v>500000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="119">
@@ -4841,7 +4849,7 @@
         </is>
       </c>
       <c r="C119" s="46" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -4851,7 +4859,7 @@
         </is>
       </c>
       <c r="C120" s="46" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
